--- a/CloudTest/SampleData/ConvertConversionItemToDetailModelSample.xlsx
+++ b/CloudTest/SampleData/ConvertConversionItemToDetailModelSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LNV\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF8372F5-D635-482E-91CB-5FCCBCE316AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB61850-A62B-4EDF-9932-FA9FB53B2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{2B71D135-FBE3-4021-A4CC-E980BDC61F06}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2B71D135-FBE3-4021-A4CC-E980BDC61F06}"/>
   </bookViews>
   <sheets>
     <sheet name="TenMst" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="245">
   <si>
     <t>HP_ID</t>
   </si>
@@ -756,6 +756,12 @@
   </si>
   <si>
     <t>ipnNameTest</t>
+  </si>
+  <si>
+    <t>ItemCd2</t>
+  </si>
+  <si>
+    <t>testItem2</t>
   </si>
 </sst>
 </file>
@@ -1108,10 +1114,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A2BDEF-30EB-495C-B277-204C25E3D15F}">
-  <dimension ref="A1:GG3"/>
+  <dimension ref="A1:GG4"/>
   <sheetViews>
-    <sheetView topLeftCell="EK1" workbookViewId="0">
-      <selection activeCell="EQ6" sqref="EQ6"/>
+    <sheetView tabSelected="1" topLeftCell="EA1" workbookViewId="0">
+      <selection activeCell="EZ4" sqref="EZ4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2658,6 +2664,488 @@
         <v>0</v>
       </c>
     </row>
+    <row r="4" spans="1:189" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>243</v>
+      </c>
+      <c r="C4">
+        <v>20220403</v>
+      </c>
+      <c r="D4">
+        <v>20250331</v>
+      </c>
+      <c r="E4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>191</v>
+      </c>
+      <c r="H4" t="s">
+        <v>192</v>
+      </c>
+      <c r="I4" t="s">
+        <v>193</v>
+      </c>
+      <c r="P4" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>12</v>
+      </c>
+      <c r="S4">
+        <v>33</v>
+      </c>
+      <c r="T4" t="s">
+        <v>195</v>
+      </c>
+      <c r="V4" t="s">
+        <v>195</v>
+      </c>
+      <c r="W4" t="s">
+        <v>196</v>
+      </c>
+      <c r="X4" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>0</v>
+      </c>
+      <c r="AY4">
+        <v>0</v>
+      </c>
+      <c r="AZ4">
+        <v>0</v>
+      </c>
+      <c r="BA4">
+        <v>0</v>
+      </c>
+      <c r="BB4">
+        <v>0</v>
+      </c>
+      <c r="BC4">
+        <v>0</v>
+      </c>
+      <c r="BD4">
+        <v>0</v>
+      </c>
+      <c r="BE4">
+        <v>0</v>
+      </c>
+      <c r="BF4">
+        <v>0</v>
+      </c>
+      <c r="BG4">
+        <v>0</v>
+      </c>
+      <c r="BH4">
+        <v>0</v>
+      </c>
+      <c r="BI4">
+        <v>0</v>
+      </c>
+      <c r="BJ4">
+        <v>0</v>
+      </c>
+      <c r="BK4">
+        <v>0</v>
+      </c>
+      <c r="BL4">
+        <v>0</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>0</v>
+      </c>
+      <c r="BO4">
+        <v>0</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>0</v>
+      </c>
+      <c r="BT4">
+        <v>0</v>
+      </c>
+      <c r="BV4">
+        <v>0</v>
+      </c>
+      <c r="BW4">
+        <v>0</v>
+      </c>
+      <c r="BX4">
+        <v>0</v>
+      </c>
+      <c r="BY4">
+        <v>0</v>
+      </c>
+      <c r="BZ4">
+        <v>0</v>
+      </c>
+      <c r="CA4">
+        <v>0</v>
+      </c>
+      <c r="CB4">
+        <v>0</v>
+      </c>
+      <c r="CC4">
+        <v>0</v>
+      </c>
+      <c r="CD4">
+        <v>0</v>
+      </c>
+      <c r="CE4">
+        <v>0</v>
+      </c>
+      <c r="CF4">
+        <v>0</v>
+      </c>
+      <c r="CG4">
+        <v>0</v>
+      </c>
+      <c r="CT4">
+        <v>0</v>
+      </c>
+      <c r="CU4">
+        <v>0</v>
+      </c>
+      <c r="CV4">
+        <v>0</v>
+      </c>
+      <c r="CW4">
+        <v>0</v>
+      </c>
+      <c r="CX4">
+        <v>0</v>
+      </c>
+      <c r="CY4">
+        <v>1</v>
+      </c>
+      <c r="CZ4">
+        <v>1</v>
+      </c>
+      <c r="DA4">
+        <v>0</v>
+      </c>
+      <c r="DB4">
+        <v>2</v>
+      </c>
+      <c r="DC4">
+        <v>0</v>
+      </c>
+      <c r="DD4">
+        <v>0</v>
+      </c>
+      <c r="DE4">
+        <v>0</v>
+      </c>
+      <c r="DF4">
+        <v>0</v>
+      </c>
+      <c r="DG4">
+        <v>0</v>
+      </c>
+      <c r="DH4">
+        <v>0</v>
+      </c>
+      <c r="DJ4">
+        <v>0</v>
+      </c>
+      <c r="DK4">
+        <v>0</v>
+      </c>
+      <c r="DL4">
+        <v>0</v>
+      </c>
+      <c r="DM4">
+        <v>0</v>
+      </c>
+      <c r="DN4">
+        <v>0</v>
+      </c>
+      <c r="DP4">
+        <v>0</v>
+      </c>
+      <c r="DQ4">
+        <v>0</v>
+      </c>
+      <c r="DR4">
+        <v>0</v>
+      </c>
+      <c r="DS4">
+        <v>0</v>
+      </c>
+      <c r="DT4">
+        <v>0</v>
+      </c>
+      <c r="DU4">
+        <v>0</v>
+      </c>
+      <c r="DV4">
+        <v>0</v>
+      </c>
+      <c r="DW4">
+        <v>4923</v>
+      </c>
+      <c r="DY4" t="s">
+        <v>198</v>
+      </c>
+      <c r="DZ4">
+        <v>1</v>
+      </c>
+      <c r="EA4">
+        <v>0</v>
+      </c>
+      <c r="EB4">
+        <v>20210401</v>
+      </c>
+      <c r="EC4">
+        <v>99999999</v>
+      </c>
+      <c r="ED4">
+        <v>0</v>
+      </c>
+      <c r="EE4">
+        <v>0</v>
+      </c>
+      <c r="EF4">
+        <v>0</v>
+      </c>
+      <c r="EG4">
+        <v>0</v>
+      </c>
+      <c r="EH4">
+        <v>0</v>
+      </c>
+      <c r="EI4">
+        <v>0</v>
+      </c>
+      <c r="EJ4">
+        <v>0</v>
+      </c>
+      <c r="EK4">
+        <v>0</v>
+      </c>
+      <c r="EL4">
+        <v>0</v>
+      </c>
+      <c r="EM4">
+        <v>0</v>
+      </c>
+      <c r="EN4">
+        <v>0</v>
+      </c>
+      <c r="EO4">
+        <v>0</v>
+      </c>
+      <c r="EP4" t="s">
+        <v>242</v>
+      </c>
+      <c r="EQ4">
+        <v>0</v>
+      </c>
+      <c r="ER4">
+        <v>0</v>
+      </c>
+      <c r="ES4">
+        <v>0</v>
+      </c>
+      <c r="ET4">
+        <v>0</v>
+      </c>
+      <c r="EU4">
+        <v>0</v>
+      </c>
+      <c r="EV4">
+        <v>0</v>
+      </c>
+      <c r="EW4">
+        <v>0</v>
+      </c>
+      <c r="EX4">
+        <v>61040607912</v>
+      </c>
+      <c r="EY4">
+        <v>0</v>
+      </c>
+      <c r="EZ4" t="s">
+        <v>244</v>
+      </c>
+      <c r="FA4">
+        <v>0</v>
+      </c>
+      <c r="FD4">
+        <v>0</v>
+      </c>
+      <c r="FE4">
+        <v>0</v>
+      </c>
+      <c r="FF4">
+        <v>0</v>
+      </c>
+      <c r="FG4">
+        <v>0</v>
+      </c>
+      <c r="FH4">
+        <v>0</v>
+      </c>
+      <c r="FI4">
+        <v>0</v>
+      </c>
+      <c r="FJ4">
+        <v>0</v>
+      </c>
+      <c r="FK4">
+        <v>0</v>
+      </c>
+      <c r="FL4">
+        <v>0</v>
+      </c>
+      <c r="FM4">
+        <v>0</v>
+      </c>
+      <c r="FN4">
+        <v>0</v>
+      </c>
+      <c r="FO4" t="s">
+        <v>200</v>
+      </c>
+      <c r="FP4">
+        <v>99909</v>
+      </c>
+      <c r="FR4" t="s">
+        <v>200</v>
+      </c>
+      <c r="FS4">
+        <v>99909</v>
+      </c>
+      <c r="FU4">
+        <v>0</v>
+      </c>
+      <c r="FV4">
+        <v>0</v>
+      </c>
+      <c r="FW4">
+        <v>0</v>
+      </c>
+      <c r="FX4">
+        <v>0</v>
+      </c>
+      <c r="FY4">
+        <v>0</v>
+      </c>
+      <c r="FZ4">
+        <v>0</v>
+      </c>
+      <c r="GA4">
+        <v>0</v>
+      </c>
+      <c r="GB4" t="s">
+        <v>196</v>
+      </c>
+      <c r="GC4">
+        <v>0</v>
+      </c>
+      <c r="GD4">
+        <v>0</v>
+      </c>
+      <c r="GE4">
+        <v>0</v>
+      </c>
+      <c r="GF4">
+        <v>0</v>
+      </c>
+      <c r="GG4">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2667,7 +3155,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EA2AC5B-339C-4C6E-9B27-75B5B73CD7DA}">
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2753,16 +3241,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5C6B4C6-7E0A-41FA-BE12-23455ED68544}">
-  <dimension ref="A1:AC2"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.3">
@@ -2885,6 +3376,9 @@
       <c r="T2">
         <v>331200</v>
       </c>
+      <c r="U2">
+        <v>331200</v>
+      </c>
       <c r="V2">
         <v>0</v>
       </c>
@@ -2901,6 +3395,53 @@
         <v>0</v>
       </c>
       <c r="AC2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="1">
+        <v>38735</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>38735</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AC3">
         <v>0</v>
       </c>
     </row>

--- a/CloudTest/SampleData/ConvertConversionItemToDetailModelSample.xlsx
+++ b/CloudTest/SampleData/ConvertConversionItemToDetailModelSample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LNV\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\BE_new\emr-cloud-be\CloudTest\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB61850-A62B-4EDF-9932-FA9FB53B2765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0FF693-AB18-4E84-A008-FD82967E1C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{2B71D135-FBE3-4021-A4CC-E980BDC61F06}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2B71D135-FBE3-4021-A4CC-E980BDC61F06}"/>
   </bookViews>
   <sheets>
     <sheet name="TenMst" sheetId="1" r:id="rId1"/>
@@ -596,9 +596,6 @@
     <t>IS_DELETED</t>
   </si>
   <si>
-    <t>ItemCdTest</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -762,6 +759,9 @@
   </si>
   <si>
     <t>testItem2</t>
+  </si>
+  <si>
+    <t>ItemCd</t>
   </si>
 </sst>
 </file>
@@ -1116,19 +1116,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80A2BDEF-30EB-495C-B277-204C25E3D15F}">
   <dimension ref="A1:GG4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="EA1" workbookViewId="0">
-      <selection activeCell="EZ4" sqref="EZ4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="156" max="156" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="157" max="157" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:189" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1697,12 +1697,12 @@
         <v>188</v>
       </c>
     </row>
-    <row r="2" spans="1:189" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="C2">
         <v>20220403</v>
@@ -1711,22 +1711,22 @@
         <v>20250331</v>
       </c>
       <c r="E2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F2">
         <v>20</v>
       </c>
       <c r="G2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H2" t="s">
         <v>191</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>192</v>
       </c>
-      <c r="I2" t="s">
+      <c r="P2" t="s">
         <v>193</v>
-      </c>
-      <c r="P2" t="s">
-        <v>194</v>
       </c>
       <c r="Q2">
         <v>1</v>
@@ -1738,19 +1738,19 @@
         <v>33</v>
       </c>
       <c r="T2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U2" t="s">
+        <v>194</v>
+      </c>
+      <c r="W2" t="s">
         <v>195</v>
       </c>
-      <c r="U2" t="s">
+      <c r="X2" t="s">
         <v>195</v>
       </c>
-      <c r="W2" t="s">
+      <c r="Y2" t="s">
         <v>196</v>
-      </c>
-      <c r="X2" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>197</v>
       </c>
       <c r="Z2">
         <v>1</v>
@@ -1792,7 +1792,7 @@
         <v>0</v>
       </c>
       <c r="AM2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN2">
         <v>0</v>
@@ -2008,10 +2008,10 @@
         <v>4923</v>
       </c>
       <c r="DX2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DY2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DZ2">
         <v>1</v>
@@ -2062,7 +2062,7 @@
         <v>0</v>
       </c>
       <c r="EP2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="EQ2">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="EZ2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="FA2">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="FO2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FP2">
         <v>99909</v>
       </c>
       <c r="FR2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FS2">
         <v>99909</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="GB2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="GC2">
         <v>0</v>
@@ -2182,12 +2182,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:189" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C3">
         <v>20220403</v>
@@ -2196,22 +2196,22 @@
         <v>20250331</v>
       </c>
       <c r="E3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F3">
         <v>20</v>
       </c>
       <c r="G3" t="s">
+        <v>190</v>
+      </c>
+      <c r="H3" t="s">
         <v>191</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>192</v>
       </c>
-      <c r="I3" t="s">
+      <c r="P3" t="s">
         <v>193</v>
-      </c>
-      <c r="P3" t="s">
-        <v>194</v>
       </c>
       <c r="Q3">
         <v>1</v>
@@ -2223,19 +2223,19 @@
         <v>33</v>
       </c>
       <c r="T3" t="s">
+        <v>194</v>
+      </c>
+      <c r="V3" t="s">
+        <v>194</v>
+      </c>
+      <c r="W3" t="s">
         <v>195</v>
       </c>
-      <c r="V3" t="s">
+      <c r="X3" t="s">
         <v>195</v>
       </c>
-      <c r="W3" t="s">
+      <c r="Y3" t="s">
         <v>196</v>
-      </c>
-      <c r="X3" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>197</v>
       </c>
       <c r="Z3">
         <v>1</v>
@@ -2277,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="AM3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN3">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>4923</v>
       </c>
       <c r="DY3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DZ3">
         <v>1</v>
@@ -2544,7 +2544,7 @@
         <v>0</v>
       </c>
       <c r="EP3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="EQ3">
         <v>0</v>
@@ -2574,7 +2574,7 @@
         <v>0</v>
       </c>
       <c r="EZ3" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="FA3">
         <v>0</v>
@@ -2613,13 +2613,13 @@
         <v>0</v>
       </c>
       <c r="FO3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FP3">
         <v>99909</v>
       </c>
       <c r="FR3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FS3">
         <v>99909</v>
@@ -2646,7 +2646,7 @@
         <v>0</v>
       </c>
       <c r="GB3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="GC3">
         <v>0</v>
@@ -2664,12 +2664,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:189" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:189" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C4">
         <v>20220403</v>
@@ -2678,22 +2678,22 @@
         <v>20250331</v>
       </c>
       <c r="E4" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="F4">
         <v>20</v>
       </c>
       <c r="G4" t="s">
+        <v>190</v>
+      </c>
+      <c r="H4" t="s">
         <v>191</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>192</v>
       </c>
-      <c r="I4" t="s">
+      <c r="P4" t="s">
         <v>193</v>
-      </c>
-      <c r="P4" t="s">
-        <v>194</v>
       </c>
       <c r="Q4">
         <v>1</v>
@@ -2705,19 +2705,19 @@
         <v>33</v>
       </c>
       <c r="T4" t="s">
+        <v>194</v>
+      </c>
+      <c r="V4" t="s">
+        <v>194</v>
+      </c>
+      <c r="W4" t="s">
         <v>195</v>
       </c>
-      <c r="V4" t="s">
+      <c r="X4" t="s">
         <v>195</v>
       </c>
-      <c r="W4" t="s">
+      <c r="Y4" t="s">
         <v>196</v>
-      </c>
-      <c r="X4" t="s">
-        <v>196</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>197</v>
       </c>
       <c r="Z4">
         <v>1</v>
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="AM4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AN4">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>4923</v>
       </c>
       <c r="DY4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="DZ4">
         <v>1</v>
@@ -3026,7 +3026,7 @@
         <v>0</v>
       </c>
       <c r="EP4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="EQ4">
         <v>0</v>
@@ -3056,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="EZ4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="FA4">
         <v>0</v>
@@ -3095,13 +3095,13 @@
         <v>0</v>
       </c>
       <c r="FO4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FP4">
         <v>99909</v>
       </c>
       <c r="FR4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="FS4">
         <v>99909</v>
@@ -3128,7 +3128,7 @@
         <v>0</v>
       </c>
       <c r="GB4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="GC4">
         <v>0</v>
@@ -3159,52 +3159,52 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" t="s">
         <v>235</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>236</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>237</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>238</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>239</v>
       </c>
-      <c r="F1" t="s">
-        <v>240</v>
-      </c>
       <c r="G1" t="s">
+        <v>223</v>
+      </c>
+      <c r="H1" t="s">
         <v>224</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>225</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>226</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>227</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>228</v>
       </c>
-      <c r="L1" t="s">
-        <v>229</v>
-      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -3216,7 +3216,7 @@
         <v>99999999</v>
       </c>
       <c r="E2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F2">
         <v>0</v>
@@ -3247,119 +3247,119 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="49.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>203</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>204</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>205</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>206</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>212</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>213</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>214</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>215</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>216</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>217</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>218</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>219</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>220</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>221</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>222</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>223</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>224</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>225</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>226</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>227</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>228</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>229</v>
       </c>
-      <c r="AC1" t="s">
-        <v>230</v>
-      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>230</v>
+      </c>
+      <c r="F2" t="s">
         <v>231</v>
-      </c>
-      <c r="F2" t="s">
-        <v>232</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -3398,21 +3398,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>230</v>
+      </c>
+      <c r="F3" t="s">
         <v>231</v>
-      </c>
-      <c r="F3" t="s">
-        <v>232</v>
       </c>
       <c r="H3">
         <v>0</v>
